--- a/Customer_Details.xlsx
+++ b/Customer_Details.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://knowledgecornerin-my.sharepoint.com/personal/vaidehi_nair_knowledgecorner_in/Documents/Course Material/Clients/Ajmera_Training/Ajmera_Group_Jun_5/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_44BCC4B47FF76FFC05FC9890E257AAF279E1E2EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B28E6FC6-9481-4C79-A715-5E45F99057FA}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="26772" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Customer</t>
   </si>
@@ -47,13 +66,25 @@
   </si>
   <si>
     <t>diana@example.com</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>jane@example.com</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>jack@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +96,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,36 +132,105 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F03E7F1-5EB7-4E36-B9BC-2A310AA492AB}" name="Customer" displayName="Customer" ref="A1:C7" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:C7" xr:uid="{5F03E7F1-5EB7-4E36-B9BC-2A310AA492AB}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A65F0139-EABD-4BF9-863B-3AD66EA15895}" name="Customer"/>
+    <tableColumn id="2" xr3:uid="{91B8500A-E6BC-4521-AC3C-37C00383B332}" name="CustomerID"/>
+    <tableColumn id="3" xr3:uid="{6C5B883B-4CBC-4F7D-AEEE-DFBBFE851DA3}" name="Email"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +268,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,6 +302,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -228,9 +337,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,14 +513,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -432,7 +548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -443,7 +559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -454,7 +570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -465,7 +581,36 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>105</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>106</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{7D926F3D-F438-4EF1-A185-0F0BD511BFB8}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{519339E7-A20C-434B-BCDD-AA0C5FEDAE77}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>